--- a/tests/expected_data/ТЗ_ЭКСПЛУАТАЦИЯ_Кабельно-проводниковая продукция_Общее.xlsx
+++ b/tests/expected_data/ТЗ_ЭКСПЛУАТАЦИЯ_Кабельно-проводниковая продукция_Общее.xlsx
@@ -292,11 +292,11 @@
   <si>
     <t>Поставка осуществляется путем отгрузок продукции автомобильным транспортом силами и за счет Поставщика до склада Грузополучателя по адресу:
 Сормовская ТЭЦ, 603950, г. Нижний Новгород, ул. Коминтерна, д. 45
+Новогорьковская ТЭЦ, 607650, Нижегородская обл, г. Кстово, промзона
+Дзержинская ТЭЦ, 606000 Нижегородская область, г. Дзержинск, промзона
+Кстовские тепловые сети, Нижегородская обл., г. Кстово, ул. Шохина, д.1 корп.2
 Исполнительный аппарат, 603005, г. Нижний Новгород, Алексеевская 10/16 БЦ "Лобачевский Плаза"
-Новогорьковская ТЭЦ, 607650, Нижегородская обл, г. Кстово, промзона
-Дзержинские тепловые сети, Нижегородская обл., г. Дзержинск, ул. Октябрьская, д. 84
-Дзержинская ТЭЦ, 606000 Нижегородская область, г. Дзержинск, промзона
-Кстовские тепловые сети, Нижегородская обл., г. Кстово, ул. Шохина, д.1 корп.2</t>
+Дзержинские тепловые сети, Нижегородская обл., г. Дзержинск, ул. Октябрьская, д. 84</t>
   </si>
 </sst>
 </file>
